--- a/biology/Microbiologie/Parameciidae/Parameciidae.xlsx
+++ b/biology/Microbiologie/Parameciidae/Parameciidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Parameciidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peniculida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Paramecium, dérivé du grec ancien παραμήκης / paramêkês, « oblong », et μῆκος / mêkos, « longueur »).
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Parameciidae ont une taille moyenne (80 à 200 μm). Leur forme est ovoïde allongée, arrondie et/ou pointue à l'une ou aux deux extrémités (ils ont été nommés commes des « animalcules en forme de pantoufle »). Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), dense, avec une zone prébuccale en forme de sillon pré-oral peu élargi (anciennement appelé « vestibulum »), recouvert de paratènes[note 1], et débouchant sur la région buccale. La cavité buccale se situe soit dans la moitié antérieure, soit en position équatoriale ; elle est pourvue d'un polykinétide buccal interne ou, plus à droite, de quatre rangées largement espacées (c'est-à-dire un quadrulus) sur la paroi dorsale de la cavité buccale. Leur macronoyau est ellipsoïde à ellipsoïde allongé. Ils peuvent avoir de  multiplex  micronoyaux. Il y a généralement deux vacuoles contractiles. Un cytoprocte est présent. Certaines espèces contiennent des zoochlorelles. Ils se nourrissent de bactéries et de microalgues[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Parameciidae ont une taille moyenne (80 à 200 μm). Leur forme est ovoïde allongée, arrondie et/ou pointue à l'une ou aux deux extrémités (ils ont été nommés commes des « animalcules en forme de pantoufle »). Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), dense, avec une zone prébuccale en forme de sillon pré-oral peu élargi (anciennement appelé « vestibulum »), recouvert de paratènes[note 1], et débouchant sur la région buccale. La cavité buccale se situe soit dans la moitié antérieure, soit en position équatoriale ; elle est pourvue d'un polykinétide buccal interne ou, plus à droite, de quatre rangées largement espacées (c'est-à-dire un quadrulus) sur la paroi dorsale de la cavité buccale. Leur macronoyau est ellipsoïde à ellipsoïde allongé. Ils peuvent avoir de  multiplex  micronoyaux. Il y a généralement deux vacuoles contractiles. Un cytoprocte est présent. Certaines espèces contiennent des zoochlorelles. Ils se nourrissent de bactéries et de microalgues.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Parameciidae vivent dans des habitats saumâtres et d’eau douce[1].
-Ils ont une large répartition mondiale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Parameciidae vivent dans des habitats saumâtres et d’eau douce.
+Ils ont une large répartition mondiale.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 décembre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 décembre 2023) :
 Micrundella Busch, 1948
 Paramaecium O.F.Müller, 1773 ⇔ Paramecium
 Paramecium O.F.Müller, 1773
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Parameciidae Dujardin, 1840[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Parameciidae Dujardin, 1840.
 </t>
         </is>
       </c>
